--- a/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A8B2D4-0A0F-487F-9320-F188550F760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B5D02A-BFD5-415A-A2B9-EB4A31713FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3308A13A-9DE9-4EA2-ACCF-D71F2D0778A4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD4DCEA4-4671-4986-9FF1-0606EFF0C7B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Hogares con personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+  <si>
+    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,550 +77,556 @@
     <t>49,69%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>59,41%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>55,14%</t>
   </si>
   <si>
-    <t>53,07%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>57,41%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>46,53%</t>
   </si>
   <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>43,43%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>56,57%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>29,93%</t>
+    <t>29,7%</t>
   </si>
   <si>
     <t>38,03%</t>
@@ -629,19 +635,19 @@
     <t>39,4%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>66,18%</t>
@@ -650,292 +656,280 @@
     <t>61,97%</t>
   </si>
   <si>
-    <t>70,07%</t>
+    <t>70,3%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>59,86%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>61,38%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>40,14%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9CA42-5E53-44ED-9517-A7E86EB9AE66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2CBB3-219D-447D-BCB6-3E04D7EC8FF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,7 +2008,7 @@
         <v>3677</v>
       </c>
       <c r="N14" s="7">
-        <v>3759224</v>
+        <v>3759225</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2065,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FE6086-954C-4C5D-9AFB-C4C4BAF78CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEA03D-22F1-4A9B-BE2D-D57CE6DCFAE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,13 +2246,13 @@
         <v>1327595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2267,13 @@
         <v>454801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -2288,13 +2282,13 @@
         <v>530044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>924</v>
@@ -2303,13 +2297,13 @@
         <v>984845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2371,13 @@
         <v>712058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>732</v>
@@ -2392,13 +2386,13 @@
         <v>794398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1399</v>
@@ -2407,13 +2401,13 @@
         <v>1506456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2422,13 @@
         <v>1251899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>903</v>
@@ -2443,13 +2437,13 @@
         <v>963405</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2092</v>
@@ -2458,13 +2452,13 @@
         <v>2215304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2526,13 @@
         <v>172517</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -2547,13 +2541,13 @@
         <v>182989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -2565,10 +2559,10 @@
         <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2577,13 @@
         <v>308664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -2598,13 +2592,13 @@
         <v>275642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>529</v>
@@ -2616,10 +2610,10 @@
         <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>1404418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>1649</v>
@@ -2702,13 +2696,13 @@
         <v>1785139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>2951</v>
@@ -2717,13 +2711,13 @@
         <v>3189557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2732,7 @@
         <v>2015364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>149</v>
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03660F-0744-4AAC-A88F-A240139047EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5317B5F-14B8-4268-BC6A-3526D07946EE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3161,10 +3155,10 @@
         <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3173,13 @@
         <v>1276529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1057</v>
@@ -3194,13 +3188,13 @@
         <v>1082090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>2258</v>
@@ -3209,13 +3203,13 @@
         <v>2358619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3277,13 @@
         <v>184953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>201</v>
@@ -3298,13 +3292,13 @@
         <v>216383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -3313,13 +3307,13 @@
         <v>401336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3328,13 @@
         <v>361933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -3349,13 +3343,13 @@
         <v>332757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3364,13 +3358,13 @@
         <v>694690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3432,13 @@
         <v>1388138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>1623</v>
@@ -3453,13 +3447,13 @@
         <v>1767587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>2945</v>
@@ -3468,13 +3462,13 @@
         <v>3155725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3483,13 @@
         <v>1989480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1703</v>
@@ -3504,13 +3498,13 @@
         <v>1764513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>3596</v>
@@ -3519,13 +3513,13 @@
         <v>3753993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8044FC-21CB-48DB-83D7-572F647CE5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07771B54-7B7F-4822-A1B1-788C353CBE68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3718,13 @@
         <v>345223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>831</v>
@@ -3739,13 +3733,13 @@
         <v>500377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>1255</v>
@@ -3754,13 +3748,13 @@
         <v>845599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3769,7 @@
         <v>196411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>237</v>
@@ -3808,10 +3802,10 @@
         <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,28 +3873,28 @@
         <v>1673999</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>2063</v>
       </c>
       <c r="I7" s="7">
-        <v>1667153</v>
+        <v>1667154</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>3545</v>
@@ -3909,13 +3903,13 @@
         <v>3341154</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3924,13 @@
         <v>488023</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>858</v>
@@ -3945,13 +3939,13 @@
         <v>582367</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1368</v>
@@ -3960,13 +3954,13 @@
         <v>1070389</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4034,13 +4028,13 @@
         <v>523792</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>738</v>
@@ -4049,13 +4043,13 @@
         <v>528138</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1249</v>
@@ -4064,13 +4058,13 @@
         <v>1051931</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4079,13 @@
         <v>149247</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -4100,13 +4094,13 @@
         <v>185748</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4115,13 +4109,13 @@
         <v>334995</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,16 +4180,16 @@
         <v>2417</v>
       </c>
       <c r="D13" s="7">
-        <v>2543014</v>
+        <v>2543013</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3632</v>
@@ -4204,28 +4198,28 @@
         <v>2695670</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>6049</v>
       </c>
       <c r="N13" s="7">
-        <v>5238684</v>
+        <v>5238683</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4234,13 @@
         <v>833681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>1720</v>
@@ -4255,13 +4249,13 @@
         <v>1103690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>2667</v>
@@ -4270,13 +4264,13 @@
         <v>1937371</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4312,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B5D02A-BFD5-415A-A2B9-EB4A31713FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA5D352-E742-4460-9BEF-1704C7D31301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD4DCEA4-4671-4986-9FF1-0606EFF0C7B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F244CAB-0BA0-49C7-9B30-A8650A48B2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,69%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>59,41%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>55,14%</t>
   </si>
   <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,31%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>40,59%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
   </si>
   <si>
     <t>44,86%</t>
   </si>
   <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>32,21%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>32,88%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -308,466 +308,454 @@
     <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>57,41%</t>
   </si>
   <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>31,64%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>40,77%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
   </si>
   <si>
     <t>77,43%</t>
@@ -1341,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2CBB3-219D-447D-BCB6-3E04D7EC8FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4445441F-CA5F-4649-A657-F32C435E0A47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1656,7 @@
         <v>1121</v>
       </c>
       <c r="D8" s="7">
-        <v>1147951</v>
+        <v>1147952</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1707,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1978,7 +1966,7 @@
         <v>1989</v>
       </c>
       <c r="D14" s="7">
-        <v>2037131</v>
+        <v>2037130</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2029,7 +2017,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EEA03D-22F1-4A9B-BE2D-D57CE6DCFAE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49D30FB-1175-45C7-BA10-6A4EABE893A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,13 +2204,13 @@
         <v>519842</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>754</v>
@@ -2231,13 +2219,13 @@
         <v>807752</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1231</v>
@@ -2246,13 +2234,13 @@
         <v>1327595</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2255,13 @@
         <v>454801</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -2282,13 +2270,13 @@
         <v>530044</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>924</v>
@@ -2297,13 +2285,13 @@
         <v>984845</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2359,13 @@
         <v>712058</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>732</v>
@@ -2386,13 +2374,13 @@
         <v>794398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>1399</v>
@@ -2401,13 +2389,13 @@
         <v>1506456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2410,13 @@
         <v>1251899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>903</v>
@@ -2437,13 +2425,13 @@
         <v>963405</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2092</v>
@@ -2452,13 +2440,13 @@
         <v>2215304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2514,13 @@
         <v>172517</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -2541,13 +2529,13 @@
         <v>182989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -2559,10 +2547,10 @@
         <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2565,13 @@
         <v>308664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -2592,13 +2580,13 @@
         <v>275642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>529</v>
@@ -2610,10 +2598,10 @@
         <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>1404418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>1649</v>
@@ -2696,13 +2684,13 @@
         <v>1785139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>2951</v>
@@ -2711,13 +2699,13 @@
         <v>3189557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>2015364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>1645</v>
@@ -2747,13 +2735,13 @@
         <v>1769091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>3545</v>
@@ -2762,13 +2750,13 @@
         <v>3784455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5317B5F-14B8-4268-BC6A-3526D07946EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6FE326-5D19-406D-9EB6-FB595C2958F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2955,13 @@
         <v>403329</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>571</v>
@@ -2982,13 +2970,13 @@
         <v>644994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>979</v>
@@ -2997,13 +2985,13 @@
         <v>1048322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3006,13 @@
         <v>351018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>321</v>
@@ -3033,13 +3021,13 @@
         <v>349666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
@@ -3048,13 +3036,13 @@
         <v>700685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3110,13 @@
         <v>799856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>851</v>
@@ -3137,13 +3125,13 @@
         <v>906210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>1602</v>
@@ -3152,13 +3140,13 @@
         <v>1706066</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3161,13 @@
         <v>1276529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1057</v>
@@ -3188,13 +3176,13 @@
         <v>1082090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>2258</v>
@@ -3203,13 +3191,13 @@
         <v>2358619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3265,13 @@
         <v>184953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>201</v>
@@ -3292,13 +3280,13 @@
         <v>216383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -3307,13 +3295,13 @@
         <v>401336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3316,13 @@
         <v>361933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -3343,13 +3331,13 @@
         <v>332757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3358,13 +3346,13 @@
         <v>694690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3420,13 @@
         <v>1388138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>1623</v>
@@ -3447,13 +3435,13 @@
         <v>1767587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>2945</v>
@@ -3462,13 +3450,13 @@
         <v>3155725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3471,13 @@
         <v>1989480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>1703</v>
@@ -3498,13 +3486,13 @@
         <v>1764513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>3596</v>
@@ -3513,13 +3501,13 @@
         <v>3753993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07771B54-7B7F-4822-A1B1-788C353CBE68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1985916A-39E9-4CBC-B8B0-2B21855B73D8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3706,13 @@
         <v>345223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>831</v>
@@ -3733,13 +3721,13 @@
         <v>500377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>1255</v>
@@ -3748,13 +3736,13 @@
         <v>845599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3757,13 @@
         <v>196411</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>596</v>
@@ -3784,13 +3772,13 @@
         <v>335576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>863</v>
@@ -3799,13 +3787,13 @@
         <v>531987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3861,13 @@
         <v>1673999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>2063</v>
@@ -3888,13 +3876,13 @@
         <v>1667154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>3545</v>
@@ -3903,13 +3891,13 @@
         <v>3341154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3912,13 @@
         <v>488023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>858</v>
@@ -3939,13 +3927,13 @@
         <v>582367</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>1368</v>
@@ -3954,13 +3942,13 @@
         <v>1070389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4016,13 @@
         <v>523792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>738</v>
@@ -4043,13 +4031,13 @@
         <v>528138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>1249</v>
@@ -4058,13 +4046,13 @@
         <v>1051931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4067,13 @@
         <v>149247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -4094,13 +4082,13 @@
         <v>185748</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4109,13 +4097,13 @@
         <v>334995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4171,13 @@
         <v>2543013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>3632</v>
@@ -4198,13 +4186,13 @@
         <v>2695670</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>6049</v>
@@ -4213,13 +4201,13 @@
         <v>5238683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>833681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>1720</v>
@@ -4249,13 +4237,13 @@
         <v>1103690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>2667</v>
@@ -4264,13 +4252,13 @@
         <v>1937371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA5D352-E742-4460-9BEF-1704C7D31301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAA4EC1-CAD6-4A98-8E9D-4757FA5DC198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F244CAB-0BA0-49C7-9B30-A8650A48B2BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3720C6A-0D4F-4D6C-B91D-3FFB1C9264B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
-  <si>
-    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,847 +77,865 @@
     <t>49,69%</t>
   </si>
   <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
   </si>
   <si>
     <t>45,19%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>39,9%</t>
   </si>
   <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>44,54%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>46,53%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>36,43%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
     <t>40,14%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>40,77%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4445441F-CA5F-4649-A657-F32C435E0A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9546BB7-3E0C-483F-9187-2078E285D1B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,7 +1674,7 @@
         <v>1121</v>
       </c>
       <c r="D8" s="7">
-        <v>1147952</v>
+        <v>1147951</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1707,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1966,7 +1984,7 @@
         <v>1989</v>
       </c>
       <c r="D14" s="7">
-        <v>2037130</v>
+        <v>2037131</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1996,7 +2014,7 @@
         <v>3677</v>
       </c>
       <c r="N14" s="7">
-        <v>3759225</v>
+        <v>3759224</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2017,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2047,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49D30FB-1175-45C7-BA10-6A4EABE893A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F218B5-9E4D-4329-95DE-00FFD2C8FBEC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2204,13 +2222,13 @@
         <v>519842</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>754</v>
@@ -2219,13 +2237,13 @@
         <v>807752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1231</v>
@@ -2234,7 +2252,7 @@
         <v>1327595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>95</v>
@@ -2255,13 +2273,13 @@
         <v>454801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -2270,13 +2288,13 @@
         <v>530044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>924</v>
@@ -2285,7 +2303,7 @@
         <v>984845</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>103</v>
@@ -2374,13 +2392,13 @@
         <v>794398</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>1399</v>
@@ -2389,13 +2407,13 @@
         <v>1506456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2428,13 @@
         <v>1251899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>903</v>
@@ -2425,13 +2443,13 @@
         <v>963405</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>2092</v>
@@ -2440,13 +2458,13 @@
         <v>2215304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2532,13 @@
         <v>172517</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -2529,13 +2547,13 @@
         <v>182989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -2547,10 +2565,10 @@
         <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2583,13 @@
         <v>308664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -2580,13 +2598,13 @@
         <v>275642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>529</v>
@@ -2598,10 +2616,10 @@
         <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2687,13 @@
         <v>1404418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>1649</v>
@@ -2684,13 +2702,13 @@
         <v>1785139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>2951</v>
@@ -2699,13 +2717,13 @@
         <v>3189557</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2738,13 @@
         <v>2015364</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>1645</v>
@@ -2735,13 +2753,13 @@
         <v>1769091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>3545</v>
@@ -2750,13 +2768,13 @@
         <v>3784455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6FE326-5D19-406D-9EB6-FB595C2958F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4802DF-977F-4CBD-AAF9-8E685DC90B33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2973,13 @@
         <v>403329</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>571</v>
@@ -2970,13 +2988,13 @@
         <v>644994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>979</v>
@@ -2985,13 +3003,13 @@
         <v>1048322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3024,13 @@
         <v>351018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>321</v>
@@ -3021,13 +3039,13 @@
         <v>349666</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
@@ -3036,13 +3054,13 @@
         <v>700685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3128,13 @@
         <v>799856</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>851</v>
@@ -3125,13 +3143,13 @@
         <v>906210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>1602</v>
@@ -3140,13 +3158,13 @@
         <v>1706066</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3179,13 @@
         <v>1276529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1057</v>
@@ -3176,13 +3194,13 @@
         <v>1082090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>2258</v>
@@ -3191,13 +3209,13 @@
         <v>2358619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3283,13 @@
         <v>184953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>201</v>
@@ -3280,13 +3298,13 @@
         <v>216383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -3295,13 +3313,13 @@
         <v>401336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3334,13 @@
         <v>361933</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -3331,13 +3349,13 @@
         <v>332757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -3346,13 +3364,13 @@
         <v>694690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3438,13 @@
         <v>1388138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>1623</v>
@@ -3435,13 +3453,13 @@
         <v>1767587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>2945</v>
@@ -3450,13 +3468,13 @@
         <v>3155725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3489,13 @@
         <v>1989480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>1703</v>
@@ -3486,13 +3504,13 @@
         <v>1764513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>3596</v>
@@ -3501,13 +3519,13 @@
         <v>3753993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1985916A-39E9-4CBC-B8B0-2B21855B73D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC30B1D-FA00-43FA-99F3-CAAB2A518646}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3724,13 @@
         <v>345223</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>831</v>
@@ -3721,13 +3739,13 @@
         <v>500377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>1255</v>
@@ -3736,13 +3754,13 @@
         <v>845599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,10 +3778,10 @@
         <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>596</v>
@@ -3772,13 +3790,13 @@
         <v>335576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>863</v>
@@ -3787,13 +3805,13 @@
         <v>531987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,28 +3879,28 @@
         <v>1673999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>2063</v>
       </c>
       <c r="I7" s="7">
-        <v>1667154</v>
+        <v>1667153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>3545</v>
@@ -3891,13 +3909,13 @@
         <v>3341154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3930,13 @@
         <v>488023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>858</v>
@@ -3927,13 +3945,13 @@
         <v>582367</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1368</v>
@@ -3942,13 +3960,13 @@
         <v>1070389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3993,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4016,13 +4034,13 @@
         <v>523792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>738</v>
@@ -4031,13 +4049,13 @@
         <v>528138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1249</v>
@@ -4046,13 +4064,13 @@
         <v>1051931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4085,13 @@
         <v>149247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -4082,13 +4100,13 @@
         <v>185748</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>436</v>
@@ -4097,13 +4115,13 @@
         <v>334995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,16 +4186,16 @@
         <v>2417</v>
       </c>
       <c r="D13" s="7">
-        <v>2543013</v>
+        <v>2543014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3632</v>
@@ -4186,28 +4204,28 @@
         <v>2695670</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>6049</v>
       </c>
       <c r="N13" s="7">
-        <v>5238683</v>
+        <v>5238684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4240,13 @@
         <v>833681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>1720</v>
@@ -4237,13 +4255,13 @@
         <v>1103690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>2667</v>
@@ -4252,13 +4270,13 @@
         <v>1937371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4288,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4300,7 +4318,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAA4EC1-CAD6-4A98-8E9D-4757FA5DC198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{990C6300-2D44-4BB3-9526-52B9A70460CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3720C6A-0D4F-4D6C-B91D-3FFB1C9264B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F98E670F-CCD9-4F6A-A0F8-B304A3668124}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,805 +137,823 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9546BB7-3E0C-483F-9187-2078E285D1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82740D-88C9-4FA9-890A-F417932FD7B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1465,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>521</v>
+        <v>725</v>
       </c>
       <c r="D4" s="7">
-        <v>512641</v>
+        <v>706486</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1480,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>760</v>
+        <v>1041</v>
       </c>
       <c r="I4" s="7">
-        <v>781336</v>
+        <v>1061925</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1495,10 +1513,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1281</v>
+        <v>1766</v>
       </c>
       <c r="N4" s="7">
-        <v>1293976</v>
+        <v>1768410</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1516,10 +1534,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>517</v>
+        <v>313</v>
       </c>
       <c r="D5" s="7">
-        <v>519082</v>
+        <v>325237</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1531,10 +1549,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>531</v>
+        <v>250</v>
       </c>
       <c r="I5" s="7">
-        <v>533777</v>
+        <v>253188</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1546,10 +1564,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1048</v>
+        <v>563</v>
       </c>
       <c r="N5" s="7">
-        <v>1052860</v>
+        <v>578425</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1600,7 +1618,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1620,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="D7" s="7">
-        <v>545461</v>
+        <v>652847</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1635,10 +1653,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>665</v>
+        <v>831</v>
       </c>
       <c r="I7" s="7">
-        <v>679047</v>
+        <v>845391</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1650,10 +1668,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1193</v>
+        <v>1470</v>
       </c>
       <c r="N7" s="7">
-        <v>1224508</v>
+        <v>1498238</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1671,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1121</v>
+        <v>1010</v>
       </c>
       <c r="D8" s="7">
-        <v>1147951</v>
+        <v>1040566</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1686,10 +1704,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>889</v>
+        <v>723</v>
       </c>
       <c r="I8" s="7">
-        <v>908626</v>
+        <v>742282</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1701,10 +1719,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2010</v>
+        <v>1733</v>
       </c>
       <c r="N8" s="7">
-        <v>2056578</v>
+        <v>1782848</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1725,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7">
-        <v>181311</v>
+        <v>218331</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1790,10 +1808,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="I10" s="7">
-        <v>196720</v>
+        <v>249730</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1805,10 +1823,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="N10" s="7">
-        <v>378032</v>
+        <v>468060</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1826,10 +1844,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>370097</v>
+        <v>333077</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1841,10 +1859,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>279692</v>
+        <v>226682</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1856,10 +1874,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>649788</v>
+        <v>559760</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1930,10 +1948,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1225</v>
+        <v>1574</v>
       </c>
       <c r="D13" s="7">
-        <v>1239413</v>
+        <v>1577663</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1945,10 +1963,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>1609</v>
+        <v>2108</v>
       </c>
       <c r="I13" s="7">
-        <v>1657104</v>
+        <v>2157045</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1960,10 +1978,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>2834</v>
+        <v>3682</v>
       </c>
       <c r="N13" s="7">
-        <v>2896516</v>
+        <v>3734709</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1981,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1989</v>
+        <v>1640</v>
       </c>
       <c r="D14" s="7">
-        <v>2037131</v>
+        <v>1698880</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1996,10 +2014,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>1688</v>
+        <v>1189</v>
       </c>
       <c r="I14" s="7">
-        <v>1722094</v>
+        <v>1222152</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2011,10 +2029,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>3677</v>
+        <v>2829</v>
       </c>
       <c r="N14" s="7">
-        <v>3759224</v>
+        <v>2921032</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2035,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2068,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F218B5-9E4D-4329-95DE-00FFD2C8FBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B01D633-4F48-4B7B-A139-B98B554CC6F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>477</v>
+        <v>691</v>
       </c>
       <c r="D4" s="7">
-        <v>519842</v>
+        <v>749184</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2231,10 +2249,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>754</v>
+        <v>1090</v>
       </c>
       <c r="I4" s="7">
-        <v>807752</v>
+        <v>1166980</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2246,19 +2264,19 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1231</v>
+        <v>1781</v>
       </c>
       <c r="N4" s="7">
-        <v>1327595</v>
+        <v>1916164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2285,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>431</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7">
-        <v>454801</v>
+        <v>225459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>493</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
-        <v>530044</v>
+        <v>170817</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>924</v>
+        <v>374</v>
       </c>
       <c r="N5" s="7">
-        <v>984845</v>
+        <v>396276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2354,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2371,49 +2389,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>667</v>
+        <v>870</v>
       </c>
       <c r="D7" s="7">
-        <v>712058</v>
+        <v>924388</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>732</v>
+        <v>961</v>
       </c>
       <c r="I7" s="7">
-        <v>794398</v>
+        <v>1043043</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>1399</v>
+        <v>1831</v>
       </c>
       <c r="N7" s="7">
-        <v>1506456</v>
+        <v>1967432</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,49 +2440,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1189</v>
+        <v>986</v>
       </c>
       <c r="D8" s="7">
-        <v>1251899</v>
+        <v>1039569</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>903</v>
+        <v>674</v>
       </c>
       <c r="I8" s="7">
-        <v>963405</v>
+        <v>714760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2092</v>
+        <v>1660</v>
       </c>
       <c r="N8" s="7">
-        <v>2215304</v>
+        <v>1754328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2544,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="D10" s="7">
-        <v>172517</v>
+        <v>229392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="I10" s="7">
-        <v>182989</v>
+        <v>248690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="N10" s="7">
-        <v>355506</v>
+        <v>478082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,49 +2595,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>308664</v>
+        <v>251789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="I11" s="7">
-        <v>275642</v>
+        <v>209941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>529</v>
+        <v>422</v>
       </c>
       <c r="N11" s="7">
-        <v>584306</v>
+        <v>461731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2679,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2681,49 +2699,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1302</v>
+        <v>1770</v>
       </c>
       <c r="D13" s="7">
-        <v>1404418</v>
+        <v>1902964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>1649</v>
+        <v>2270</v>
       </c>
       <c r="I13" s="7">
-        <v>1785139</v>
+        <v>2458713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>2951</v>
+        <v>4040</v>
       </c>
       <c r="N13" s="7">
-        <v>3189557</v>
+        <v>4361677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2750,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1900</v>
+        <v>1432</v>
       </c>
       <c r="D14" s="7">
-        <v>2015364</v>
+        <v>1516818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>1645</v>
+        <v>1024</v>
       </c>
       <c r="I14" s="7">
-        <v>1769091</v>
+        <v>1095517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>3545</v>
+        <v>2456</v>
       </c>
       <c r="N14" s="7">
-        <v>3784455</v>
+        <v>2612335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4802DF-977F-4CBD-AAF9-8E685DC90B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0842D74-314F-4ABB-BBA0-50C745418D34}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,49 +2985,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>408</v>
+        <v>566</v>
       </c>
       <c r="D4" s="7">
-        <v>403329</v>
+        <v>551564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>571</v>
+        <v>756</v>
       </c>
       <c r="I4" s="7">
-        <v>644994</v>
+        <v>856467</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>979</v>
+        <v>1322</v>
       </c>
       <c r="N4" s="7">
-        <v>1048322</v>
+        <v>1408031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,49 +3036,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>354</v>
+        <v>196</v>
       </c>
       <c r="D5" s="7">
-        <v>351018</v>
+        <v>202783</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="I5" s="7">
-        <v>349666</v>
+        <v>138193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>675</v>
+        <v>332</v>
       </c>
       <c r="N5" s="7">
-        <v>700685</v>
+        <v>340976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,49 +3140,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>751</v>
+        <v>935</v>
       </c>
       <c r="D7" s="7">
-        <v>799856</v>
+        <v>992739</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>851</v>
+        <v>1059</v>
       </c>
       <c r="I7" s="7">
-        <v>906210</v>
+        <v>1131489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>1602</v>
+        <v>1994</v>
       </c>
       <c r="N7" s="7">
-        <v>1706066</v>
+        <v>2124228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,49 +3191,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1201</v>
+        <v>1017</v>
       </c>
       <c r="D8" s="7">
-        <v>1276529</v>
+        <v>1083646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>1057</v>
+        <v>849</v>
       </c>
       <c r="I8" s="7">
-        <v>1082090</v>
+        <v>856811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>2258</v>
+        <v>1866</v>
       </c>
       <c r="N8" s="7">
-        <v>2358619</v>
+        <v>1940457</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,49 +3295,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>184953</v>
+        <v>222061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
+        <v>247</v>
+      </c>
+      <c r="I10" s="7">
+        <v>264962</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="7">
-        <v>216383</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="M10" s="7">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="N10" s="7">
-        <v>401336</v>
+        <v>487024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,49 +3346,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>361933</v>
+        <v>324825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="I11" s="7">
-        <v>332757</v>
+        <v>284178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>663</v>
+        <v>581</v>
       </c>
       <c r="N11" s="7">
-        <v>694690</v>
+        <v>609003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3430,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3432,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1322</v>
+        <v>1700</v>
       </c>
       <c r="D13" s="7">
-        <v>1388138</v>
+        <v>1766365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>1623</v>
+        <v>2062</v>
       </c>
       <c r="I13" s="7">
-        <v>1767587</v>
+        <v>2252918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>2945</v>
+        <v>3762</v>
       </c>
       <c r="N13" s="7">
-        <v>3155725</v>
+        <v>4019283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1893</v>
+        <v>1515</v>
       </c>
       <c r="D14" s="7">
-        <v>1989480</v>
+        <v>1611253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>1703</v>
+        <v>1264</v>
       </c>
       <c r="I14" s="7">
-        <v>1764513</v>
+        <v>1279182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>3596</v>
+        <v>2779</v>
       </c>
       <c r="N14" s="7">
-        <v>3753993</v>
+        <v>2890435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC30B1D-FA00-43FA-99F3-CAAB2A518646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91739182-684B-45FC-B279-E27896E456EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,49 +3736,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="D4" s="7">
-        <v>345223</v>
+        <v>323514</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>831</v>
+        <v>1043</v>
       </c>
       <c r="I4" s="7">
-        <v>500377</v>
+        <v>534791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
-        <v>1255</v>
+        <v>1487</v>
       </c>
       <c r="N4" s="7">
-        <v>845599</v>
+        <v>858305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,49 +3787,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D5" s="7">
-        <v>196411</v>
+        <v>191424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
-        <v>596</v>
+        <v>384</v>
       </c>
       <c r="I5" s="7">
-        <v>335576</v>
+        <v>220717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
-        <v>863</v>
+        <v>631</v>
       </c>
       <c r="N5" s="7">
-        <v>531987</v>
+        <v>412141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3841,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3856,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3871,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3873,49 +3891,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1482</v>
+        <v>810</v>
       </c>
       <c r="D7" s="7">
-        <v>1673999</v>
+        <v>778251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
-        <v>2063</v>
+        <v>1292</v>
       </c>
       <c r="I7" s="7">
-        <v>1667153</v>
+        <v>1008486</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
-        <v>3545</v>
+        <v>2102</v>
       </c>
       <c r="N7" s="7">
-        <v>3341154</v>
+        <v>1786737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3942,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>510</v>
+        <v>1182</v>
       </c>
       <c r="D8" s="7">
-        <v>488023</v>
+        <v>1512076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
-        <v>858</v>
+        <v>1629</v>
       </c>
       <c r="I8" s="7">
-        <v>582367</v>
+        <v>1229337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>1368</v>
+        <v>2811</v>
       </c>
       <c r="N8" s="7">
-        <v>1070389</v>
+        <v>2741413</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3996,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +4011,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4026,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4028,49 +4046,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>511</v>
+        <v>237</v>
       </c>
       <c r="D10" s="7">
-        <v>523792</v>
+        <v>215109</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>738</v>
+        <v>360</v>
       </c>
       <c r="I10" s="7">
-        <v>528138</v>
+        <v>232462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
-        <v>1249</v>
+        <v>597</v>
       </c>
       <c r="N10" s="7">
-        <v>1051931</v>
+        <v>447571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +4097,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>444</v>
       </c>
       <c r="D11" s="7">
-        <v>149247</v>
+        <v>431514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
-        <v>266</v>
+        <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>185748</v>
+        <v>428001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
-        <v>436</v>
+        <v>1088</v>
       </c>
       <c r="N11" s="7">
-        <v>334995</v>
+        <v>859515</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4151,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4166,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4181,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4183,49 +4201,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2417</v>
+        <v>1491</v>
       </c>
       <c r="D13" s="7">
-        <v>2543014</v>
+        <v>1316875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
-        <v>3632</v>
+        <v>2695</v>
       </c>
       <c r="I13" s="7">
-        <v>2695670</v>
+        <v>1775739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>6049</v>
+        <v>4186</v>
       </c>
       <c r="N13" s="7">
-        <v>5238684</v>
+        <v>3092614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4252,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>947</v>
+        <v>1873</v>
       </c>
       <c r="D14" s="7">
-        <v>833681</v>
+        <v>2135014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
-        <v>1720</v>
+        <v>2657</v>
       </c>
       <c r="I14" s="7">
-        <v>1103690</v>
+        <v>1878055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
-        <v>2667</v>
+        <v>4530</v>
       </c>
       <c r="N14" s="7">
-        <v>1937371</v>
+        <v>4013069</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4321,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4336,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
